--- a/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Govt. Adarsh Vidyalaya Indi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Vijayapur</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High School (RMSA) Jaddigadde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. High School Indi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Smt. Ramabai High School Indi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>B E H S NidagundiB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Talikot Anjuman High SchoolMudebihal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bijapur</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S AnashiJoida</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. High SchoolAlurIndi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High School AmadalliKarwar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>V Y Patil High School PadanurIndi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKangodSiddapur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S Y High School MiragiIndi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School BaragudiIndi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. High School ShiralagiSidddapur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S PeerapurMuddebhihal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Rahimkhan Unity High School Karwar</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -912,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S (RMSA) ArjanalIndiChadachan</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -939,6 +1029,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>R P S S Secondary School BelseAnkola</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -967,6 +1062,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Muddebihal</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Bijapur</t>
         </is>
       </c>
@@ -994,6 +1094,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High School MadikeshwarMuddebihal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1021,6 +1126,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>The PNE SchoolCharliaKarwar</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Uttara kannada</t>
         </is>
       </c>
@@ -1048,6 +1158,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S K Comp. P U College Talikoti</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -1075,6 +1190,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>B J Patil Composite P U CollegeManaguliB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -1102,6 +1222,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High School AllankiHonavarKarwar</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -1129,6 +1254,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High School B SalawadgiMuddebihal</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1154,7 +1284,8 @@
           <t>SHRIDHAR V DESHPANDE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Banjara High School Vijayapur</t>
         </is>
@@ -1183,6 +1314,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>D B E H S Nimbal LtIndi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1210,6 +1346,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Janata VidyalayaAnilgodHonnavar</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -1237,6 +1378,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>K R C R School TavanchuruSiddapur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -1264,6 +1410,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S HinganiCHadachan</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1289,7 +1440,8 @@
           <t>UMESH S HEGDE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Govt. High School Hallibail</t>
         </is>
@@ -1307,6 +1459,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>Siddapur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Sirsi</t>
         </is>
@@ -1334,6 +1491,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>P S C H S Sindagi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Vijayapur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,6 @@
           <t>SHRIDHAR V DESHPANDE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>Banjara High School Vijayapur</t>
@@ -1319,7 +1318,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1350,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1414,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1439,6 @@
           <t>UMESH S HEGDE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Govt. High School Hallibail</t>
@@ -1465,7 +1463,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1495,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-03)_32_4.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Uttara kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Banjara High School Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Govt. High School Hallibail</t>
+          <t>Haveri</t>
         </is>
       </c>
     </row>
